--- a/data/trans_orig/P47A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P47A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{321E1654-6298-456E-B413-2AF5D525B0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7997473-A223-4B11-8015-68D0731B9A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{207E8319-3076-4530-B665-C637B934D8C7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A4BACC70-2BE7-4FEB-9B14-1326498F90F9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="549">
   <si>
     <t>Población según su autopercepción del peso respecto de su talla en 2007 (Tasa respuesta: 99,78%)</t>
   </si>
@@ -77,1627 +77,1615 @@
     <t>3,9%</t>
   </si>
   <si>
-    <t>2,72%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>Algo mayor de lo normal</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>Bastante mayor de lo normal</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
   </si>
   <si>
     <t>5,29%</t>
   </si>
   <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>Algo mayor de lo normal</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>Bastante mayor de lo normal</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción del peso respecto de su talla en 2012 (Tasa respuesta: 99,09%)</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción del peso respecto de su talla en 2015 (Tasa respuesta: 98,87%)</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción del peso respecto de su talla en 2023 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
   </si>
   <si>
     <t>3,3%</t>
   </si>
   <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
   </si>
   <si>
     <t>29,42%</t>
   </si>
   <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción del peso respecto de su talla en 2012 (Tasa respuesta: 99,09%)</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción del peso respecto de su talla en 2015 (Tasa respuesta: 98,87%)</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
   </si>
   <si>
     <t>6,56%</t>
   </si>
   <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción del peso respecto de su talla en 2023 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
+    <t>7,8%</t>
   </si>
 </sst>
 </file>
@@ -2109,7 +2097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710B0BDB-F351-41A7-B9D5-7E8C819FD9C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25CC434F-5E42-4E1C-8FAF-5BE16362365C}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2263,19 +2251,19 @@
         <v>66434</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>584</v>
@@ -2284,13 +2272,13 @@
         <v>582498</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>548</v>
@@ -2299,13 +2287,13 @@
         <v>559107</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>1132</v>
@@ -2314,19 +2302,19 @@
         <v>1141604</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>303</v>
@@ -2335,13 +2323,13 @@
         <v>294716</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>452</v>
@@ -2350,13 +2338,13 @@
         <v>461399</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>755</v>
@@ -2365,19 +2353,19 @@
         <v>756115</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>111</v>
@@ -2386,13 +2374,13 @@
         <v>110871</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>260</v>
@@ -2401,13 +2389,13 @@
         <v>263178</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>371</v>
@@ -2416,13 +2404,13 @@
         <v>374049</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2437,13 +2425,13 @@
         <v>1028178</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>1286</v>
@@ -2452,13 +2440,13 @@
         <v>1310025</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>2320</v>
@@ -2467,18 +2455,18 @@
         <v>2338202</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2490,13 +2478,13 @@
         <v>71850</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>64</v>
@@ -2505,13 +2493,13 @@
         <v>67863</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>134</v>
@@ -2520,19 +2508,19 @@
         <v>139713</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7">
         <v>1070</v>
@@ -2541,13 +2529,13 @@
         <v>1104114</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>931</v>
@@ -2556,13 +2544,13 @@
         <v>949862</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>2001</v>
@@ -2571,19 +2559,19 @@
         <v>2053976</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7">
         <v>416</v>
@@ -2592,13 +2580,13 @@
         <v>426151</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>425</v>
@@ -2607,13 +2595,13 @@
         <v>433332</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>841</v>
@@ -2622,19 +2610,19 @@
         <v>859483</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>91</v>
@@ -2643,7 +2631,7 @@
         <v>89533</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>79</v>
@@ -2694,13 +2682,13 @@
         <v>1691649</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>1553</v>
@@ -2709,13 +2697,13 @@
         <v>1586874</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>3200</v>
@@ -2724,13 +2712,13 @@
         <v>3278522</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,13 +2735,13 @@
         <v>29881</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -2762,13 +2750,13 @@
         <v>20613</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>47</v>
@@ -2777,19 +2765,19 @@
         <v>50493</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="7">
         <v>340</v>
@@ -2798,13 +2786,13 @@
         <v>355320</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>296</v>
@@ -2813,13 +2801,13 @@
         <v>312123</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>636</v>
@@ -2828,19 +2816,19 @@
         <v>667444</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7">
         <v>137</v>
@@ -2849,13 +2837,13 @@
         <v>140537</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>104</v>
@@ -2864,13 +2852,13 @@
         <v>110650</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>241</v>
@@ -2879,19 +2867,19 @@
         <v>251187</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>23</v>
@@ -2900,13 +2888,13 @@
         <v>25670</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -2915,13 +2903,13 @@
         <v>31049</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>53</v>
@@ -2930,13 +2918,13 @@
         <v>56719</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,13 +2939,13 @@
         <v>551408</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>450</v>
@@ -2966,13 +2954,13 @@
         <v>474435</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>977</v>
@@ -2981,13 +2969,13 @@
         <v>1025843</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,13 +2992,13 @@
         <v>141824</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H19" s="7">
         <v>110</v>
@@ -3019,13 +3007,13 @@
         <v>114817</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>243</v>
@@ -3034,19 +3022,19 @@
         <v>256641</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>1994</v>
@@ -3055,13 +3043,13 @@
         <v>2041932</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H20" s="7">
         <v>1775</v>
@@ -3070,13 +3058,13 @@
         <v>1821092</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>3769</v>
@@ -3085,19 +3073,19 @@
         <v>3863024</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7">
         <v>856</v>
@@ -3106,28 +3094,28 @@
         <v>861404</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H21" s="7">
         <v>981</v>
       </c>
       <c r="I21" s="7">
-        <v>1005380</v>
+        <v>1005381</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M21" s="7">
         <v>1837</v>
@@ -3136,19 +3124,19 @@
         <v>1866785</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>225</v>
@@ -3157,13 +3145,13 @@
         <v>226074</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>423</v>
@@ -3172,13 +3160,13 @@
         <v>430044</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>648</v>
@@ -3187,13 +3175,13 @@
         <v>656118</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,28 +3196,28 @@
         <v>3271234</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>3289</v>
       </c>
       <c r="I23" s="7">
-        <v>3371333</v>
+        <v>3371334</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>6497</v>
@@ -3238,18 +3226,18 @@
         <v>6642568</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3268,7 +3256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB3D7965-5597-40CC-8A70-D8BE99540753}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4D307C-0F50-48D1-8497-32852D16F75D}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3285,7 +3273,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3392,13 +3380,13 @@
         <v>49339</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H4" s="7">
         <v>37</v>
@@ -3407,13 +3395,13 @@
         <v>40993</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M4" s="7">
         <v>83</v>
@@ -3422,19 +3410,19 @@
         <v>90331</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>516</v>
@@ -3443,13 +3431,13 @@
         <v>552150</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>541</v>
@@ -3458,13 +3446,13 @@
         <v>584183</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M5" s="7">
         <v>1057</v>
@@ -3473,19 +3461,19 @@
         <v>1136333</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>265</v>
@@ -3494,13 +3482,13 @@
         <v>282696</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H6" s="7">
         <v>484</v>
@@ -3509,13 +3497,13 @@
         <v>512062</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>749</v>
@@ -3524,19 +3512,19 @@
         <v>794758</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>73</v>
@@ -3545,13 +3533,13 @@
         <v>80754</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H7" s="7">
         <v>168</v>
@@ -3560,13 +3548,13 @@
         <v>181297</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M7" s="7">
         <v>241</v>
@@ -3575,13 +3563,13 @@
         <v>262051</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,13 +3584,13 @@
         <v>964939</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>1230</v>
@@ -3611,13 +3599,13 @@
         <v>1318535</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>2130</v>
@@ -3626,18 +3614,18 @@
         <v>2283474</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -3649,13 +3637,13 @@
         <v>96203</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H9" s="7">
         <v>61</v>
@@ -3664,13 +3652,13 @@
         <v>65662</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M9" s="7">
         <v>155</v>
@@ -3679,19 +3667,19 @@
         <v>161866</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>95</v>
+        <v>199</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7">
         <v>1168</v>
@@ -3700,13 +3688,13 @@
         <v>1230983</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>903</v>
@@ -3715,13 +3703,13 @@
         <v>961772</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>2071</v>
@@ -3730,19 +3718,19 @@
         <v>2192755</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7">
         <v>488</v>
@@ -3751,13 +3739,13 @@
         <v>518976</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>508</v>
@@ -3766,13 +3754,13 @@
         <v>554095</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>996</v>
@@ -3781,19 +3769,19 @@
         <v>1073071</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>92</v>
@@ -3802,13 +3790,13 @@
         <v>101446</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H12" s="7">
         <v>149</v>
@@ -3817,13 +3805,13 @@
         <v>160413</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M12" s="7">
         <v>241</v>
@@ -3832,13 +3820,13 @@
         <v>261859</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,13 +3841,13 @@
         <v>1947608</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>1621</v>
@@ -3868,13 +3856,13 @@
         <v>1741942</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>3463</v>
@@ -3883,13 +3871,13 @@
         <v>3689550</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,13 +3894,13 @@
         <v>19702</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>26</v>
@@ -3921,13 +3909,13 @@
         <v>28858</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>44</v>
@@ -3936,19 +3924,19 @@
         <v>48560</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="7">
         <v>286</v>
@@ -3957,13 +3945,13 @@
         <v>314336</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H15" s="7">
         <v>266</v>
@@ -3972,13 +3960,13 @@
         <v>299128</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M15" s="7">
         <v>552</v>
@@ -3987,19 +3975,19 @@
         <v>613464</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7">
         <v>109</v>
@@ -4008,13 +3996,13 @@
         <v>116190</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H16" s="7">
         <v>96</v>
@@ -4023,13 +4011,13 @@
         <v>103806</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M16" s="7">
         <v>205</v>
@@ -4038,19 +4026,19 @@
         <v>219996</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>21</v>
@@ -4059,13 +4047,13 @@
         <v>26669</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -4074,13 +4062,13 @@
         <v>24766</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
@@ -4089,13 +4077,13 @@
         <v>51435</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,13 +4098,13 @@
         <v>476898</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>410</v>
@@ -4125,13 +4113,13 @@
         <v>456558</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>844</v>
@@ -4140,13 +4128,13 @@
         <v>933456</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,13 +4151,13 @@
         <v>165245</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H19" s="7">
         <v>124</v>
@@ -4178,13 +4166,13 @@
         <v>135513</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M19" s="7">
         <v>282</v>
@@ -4193,19 +4181,19 @@
         <v>300757</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>260</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>1970</v>
@@ -4214,13 +4202,13 @@
         <v>2097470</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H20" s="7">
         <v>1710</v>
@@ -4229,13 +4217,13 @@
         <v>1845083</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M20" s="7">
         <v>3680</v>
@@ -4244,19 +4232,19 @@
         <v>3942552</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7">
         <v>862</v>
@@ -4265,13 +4253,13 @@
         <v>917862</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H21" s="7">
         <v>1088</v>
@@ -4280,13 +4268,13 @@
         <v>1169963</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M21" s="7">
         <v>1950</v>
@@ -4295,19 +4283,19 @@
         <v>2087825</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>186</v>
@@ -4316,13 +4304,13 @@
         <v>208869</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>13</v>
+        <v>290</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>287</v>
+        <v>225</v>
       </c>
       <c r="H22" s="7">
         <v>339</v>
@@ -4331,13 +4319,13 @@
         <v>366476</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M22" s="7">
         <v>525</v>
@@ -4346,13 +4334,13 @@
         <v>575345</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>42</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,13 +4355,13 @@
         <v>3389446</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>3261</v>
@@ -4382,13 +4370,13 @@
         <v>3517035</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>6437</v>
@@ -4397,18 +4385,18 @@
         <v>6906480</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -4427,7 +4415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206AEDCF-BF81-4909-9991-EF4D3A3921BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15973F3-047E-4B58-8532-2F33563642AB}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4444,7 +4432,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4551,13 +4539,13 @@
         <v>28898</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="H4" s="7">
         <v>25</v>
@@ -4566,13 +4554,13 @@
         <v>27814</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>52</v>
+        <v>303</v>
       </c>
       <c r="M4" s="7">
         <v>54</v>
@@ -4581,19 +4569,19 @@
         <v>56712</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>228</v>
+        <v>305</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>55</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>426</v>
@@ -4602,13 +4590,13 @@
         <v>418873</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="H5" s="7">
         <v>415</v>
@@ -4617,34 +4605,34 @@
         <v>462381</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="M5" s="7">
         <v>841</v>
       </c>
       <c r="N5" s="7">
-        <v>881253</v>
+        <v>881254</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>228</v>
@@ -4653,13 +4641,13 @@
         <v>229195</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="H6" s="7">
         <v>336</v>
@@ -4668,13 +4656,13 @@
         <v>373314</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="M6" s="7">
         <v>564</v>
@@ -4683,19 +4671,19 @@
         <v>602509</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>58</v>
@@ -4704,13 +4692,13 @@
         <v>58733</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>317</v>
+        <v>227</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="H7" s="7">
         <v>96</v>
@@ -4719,13 +4707,13 @@
         <v>109080</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="M7" s="7">
         <v>154</v>
@@ -4734,13 +4722,13 @@
         <v>167813</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>324</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,13 +4743,13 @@
         <v>735699</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>872</v>
@@ -4770,33 +4758,33 @@
         <v>972590</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>1613</v>
       </c>
       <c r="N8" s="7">
-        <v>1708288</v>
+        <v>1708289</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -4808,13 +4796,13 @@
         <v>89758</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>326</v>
+        <v>258</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="H9" s="7">
         <v>81</v>
@@ -4823,13 +4811,13 @@
         <v>83399</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M9" s="7">
         <v>164</v>
@@ -4838,19 +4826,19 @@
         <v>173157</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7">
         <v>1259</v>
@@ -4859,13 +4847,13 @@
         <v>1325691</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>334</v>
+        <v>131</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H10" s="7">
         <v>1147</v>
@@ -4874,13 +4862,13 @@
         <v>1186872</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>67</v>
+        <v>342</v>
       </c>
       <c r="M10" s="7">
         <v>2406</v>
@@ -4889,19 +4877,19 @@
         <v>2512564</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7">
         <v>490</v>
@@ -4910,13 +4898,13 @@
         <v>527994</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H11" s="7">
         <v>516</v>
@@ -4925,13 +4913,13 @@
         <v>541954</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="M11" s="7">
         <v>1006</v>
@@ -4940,19 +4928,19 @@
         <v>1069948</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>110</v>
@@ -4961,13 +4949,13 @@
         <v>121824</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>94</v>
+        <v>356</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="H12" s="7">
         <v>143</v>
@@ -4976,13 +4964,13 @@
         <v>152679</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>354</v>
+        <v>92</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="M12" s="7">
         <v>253</v>
@@ -4991,13 +4979,13 @@
         <v>274503</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5012,13 +5000,13 @@
         <v>2065268</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>1887</v>
@@ -5027,13 +5015,13 @@
         <v>1964904</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>3829</v>
@@ -5042,13 +5030,13 @@
         <v>4030172</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,13 +5053,13 @@
         <v>23970</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>365</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -5080,13 +5068,13 @@
         <v>21745</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -5095,19 +5083,19 @@
         <v>45715</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>219</v>
+        <v>368</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="7">
         <v>338</v>
@@ -5116,13 +5104,13 @@
         <v>366485</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="H15" s="7">
         <v>336</v>
@@ -5131,13 +5119,13 @@
         <v>345945</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="M15" s="7">
         <v>674</v>
@@ -5146,19 +5134,19 @@
         <v>712431</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7">
         <v>114</v>
@@ -5167,13 +5155,13 @@
         <v>123002</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="H16" s="7">
         <v>130</v>
@@ -5182,13 +5170,13 @@
         <v>137773</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>246</v>
+        <v>385</v>
       </c>
       <c r="M16" s="7">
         <v>244</v>
@@ -5197,19 +5185,19 @@
         <v>260775</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>25</v>
@@ -5218,13 +5206,13 @@
         <v>30548</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="H17" s="7">
         <v>39</v>
@@ -5233,13 +5221,13 @@
         <v>43677</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -5248,13 +5236,13 @@
         <v>74225</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,13 +5257,13 @@
         <v>544005</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>526</v>
@@ -5284,13 +5272,13 @@
         <v>549140</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>1025</v>
@@ -5299,13 +5287,13 @@
         <v>1093146</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,13 +5310,13 @@
         <v>142626</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="H19" s="7">
         <v>127</v>
@@ -5337,13 +5325,13 @@
         <v>132958</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>393</v>
+        <v>199</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>394</v>
+        <v>267</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="M19" s="7">
         <v>261</v>
@@ -5352,19 +5340,19 @@
         <v>275584</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>2023</v>
@@ -5373,13 +5361,13 @@
         <v>2111050</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="H20" s="7">
         <v>1898</v>
@@ -5388,13 +5376,13 @@
         <v>1995198</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="M20" s="7">
         <v>3921</v>
@@ -5403,19 +5391,19 @@
         <v>4106248</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7">
         <v>832</v>
@@ -5424,13 +5412,13 @@
         <v>880191</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="H21" s="7">
         <v>982</v>
@@ -5439,13 +5427,13 @@
         <v>1053041</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="M21" s="7">
         <v>1814</v>
@@ -5454,19 +5442,19 @@
         <v>1933232</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>193</v>
@@ -5475,13 +5463,13 @@
         <v>211105</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>416</v>
+        <v>226</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>57</v>
+        <v>420</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>224</v>
+        <v>421</v>
       </c>
       <c r="H22" s="7">
         <v>278</v>
@@ -5490,13 +5478,13 @@
         <v>305437</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>419</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>471</v>
@@ -5505,13 +5493,13 @@
         <v>516542</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>256</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,13 +5514,13 @@
         <v>3344972</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>3285</v>
@@ -5541,13 +5529,13 @@
         <v>3486634</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>6467</v>
@@ -5556,18 +5544,18 @@
         <v>6831606</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -5586,7 +5574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B69CB6-E952-43F4-BA3A-D913F939B426}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F49CA46-5DED-4D56-AA42-DC642DB3DBF5}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5603,7 +5591,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5710,13 +5698,13 @@
         <v>29747</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>424</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="H4" s="7">
         <v>51</v>
@@ -5725,13 +5713,13 @@
         <v>30695</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="M4" s="7">
         <v>86</v>
@@ -5740,19 +5728,19 @@
         <v>60442</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>124</v>
+        <v>433</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>349</v>
@@ -5761,13 +5749,13 @@
         <v>269920</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="H5" s="7">
         <v>689</v>
@@ -5776,13 +5764,13 @@
         <v>419534</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="M5" s="7">
         <v>1038</v>
@@ -5791,19 +5779,19 @@
         <v>689454</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>204</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>240</v>
@@ -5812,13 +5800,13 @@
         <v>186983</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="H6" s="7">
         <v>536</v>
@@ -5827,13 +5815,13 @@
         <v>301790</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M6" s="7">
         <v>776</v>
@@ -5842,19 +5830,19 @@
         <v>488772</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>66</v>
@@ -5863,13 +5851,13 @@
         <v>54042</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="H7" s="7">
         <v>146</v>
@@ -5878,13 +5866,13 @@
         <v>80953</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="M7" s="7">
         <v>212</v>
@@ -5893,13 +5881,13 @@
         <v>134995</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5914,13 +5902,13 @@
         <v>540692</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>1422</v>
@@ -5929,13 +5917,13 @@
         <v>832971</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>2112</v>
@@ -5944,18 +5932,18 @@
         <v>1373664</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -5967,13 +5955,13 @@
         <v>115965</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>457</v>
+        <v>232</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>458</v>
+        <v>425</v>
       </c>
       <c r="H9" s="7">
         <v>160</v>
@@ -5982,13 +5970,13 @@
         <v>154151</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>459</v>
+        <v>159</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>460</v>
+        <v>260</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M9" s="7">
         <v>240</v>
@@ -5997,19 +5985,19 @@
         <v>270116</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>218</v>
+        <v>464</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7">
         <v>1107</v>
@@ -6018,13 +6006,13 @@
         <v>1192867</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H10" s="7">
         <v>1573</v>
@@ -6033,13 +6021,13 @@
         <v>1324382</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="M10" s="7">
         <v>2680</v>
@@ -6048,19 +6036,19 @@
         <v>2517249</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7">
         <v>650</v>
@@ -6069,13 +6057,13 @@
         <v>703520</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="H11" s="7">
         <v>953</v>
@@ -6084,13 +6072,13 @@
         <v>619902</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>344</v>
+        <v>478</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="M11" s="7">
         <v>1603</v>
@@ -6099,19 +6087,19 @@
         <v>1323422</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>479</v>
+        <v>348</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>153</v>
@@ -6120,13 +6108,13 @@
         <v>147527</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>253</v>
+        <v>392</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H12" s="7">
         <v>231</v>
@@ -6135,13 +6123,13 @@
         <v>148326</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="M12" s="7">
         <v>384</v>
@@ -6150,13 +6138,13 @@
         <v>295853</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>486</v>
+        <v>185</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6171,13 +6159,13 @@
         <v>2159879</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>2917</v>
@@ -6186,28 +6174,28 @@
         <v>2246762</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>4907</v>
       </c>
       <c r="N13" s="7">
-        <v>4406640</v>
+        <v>4406641</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6224,13 +6212,13 @@
         <v>32747</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>162</v>
+        <v>492</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -6239,13 +6227,13 @@
         <v>30682</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="M14" s="7">
         <v>74</v>
@@ -6254,19 +6242,19 @@
         <v>63428</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="7">
         <v>406</v>
@@ -6275,13 +6263,13 @@
         <v>398461</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H15" s="7">
         <v>602</v>
@@ -6290,10 +6278,10 @@
         <v>438702</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>500</v>
+        <v>341</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>501</v>
@@ -6305,19 +6293,19 @@
         <v>837164</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7">
         <v>207</v>
@@ -6326,13 +6314,13 @@
         <v>208092</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>507</v>
       </c>
       <c r="H16" s="7">
         <v>289</v>
@@ -6341,13 +6329,13 @@
         <v>194319</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>510</v>
       </c>
       <c r="M16" s="7">
         <v>496</v>
@@ -6356,19 +6344,19 @@
         <v>402411</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>37</v>
@@ -6377,13 +6365,13 @@
         <v>33740</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>515</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>516</v>
+        <v>147</v>
       </c>
       <c r="H17" s="7">
         <v>70</v>
@@ -6392,13 +6380,13 @@
         <v>50183</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>352</v>
+        <v>515</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>518</v>
       </c>
       <c r="M17" s="7">
         <v>107</v>
@@ -6407,10 +6395,10 @@
         <v>83922</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>520</v>
@@ -6428,13 +6416,13 @@
         <v>673039</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>1004</v>
@@ -6443,13 +6431,13 @@
         <v>713886</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>1685</v>
@@ -6458,13 +6446,13 @@
         <v>1386926</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6481,13 +6469,13 @@
         <v>178459</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="H19" s="7">
         <v>254</v>
@@ -6496,13 +6484,13 @@
         <v>215528</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>524</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>354</v>
+        <v>230</v>
       </c>
       <c r="M19" s="7">
         <v>400</v>
@@ -6511,19 +6499,19 @@
         <v>393987</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>525</v>
+        <v>198</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>1862</v>
@@ -6532,13 +6520,13 @@
         <v>1861248</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="H20" s="7">
         <v>2864</v>
@@ -6547,13 +6535,13 @@
         <v>2182618</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>532</v>
       </c>
       <c r="M20" s="7">
         <v>4726</v>
@@ -6562,19 +6550,19 @@
         <v>4043867</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7">
         <v>1097</v>
@@ -6583,13 +6571,13 @@
         <v>1098594</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>538</v>
       </c>
       <c r="H21" s="7">
         <v>1778</v>
@@ -6598,13 +6586,13 @@
         <v>1116011</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>108</v>
+        <v>537</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>540</v>
       </c>
       <c r="M21" s="7">
         <v>2875</v>
@@ -6613,19 +6601,19 @@
         <v>2214606</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>256</v>
@@ -6634,13 +6622,13 @@
         <v>235309</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>545</v>
+        <v>518</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>546</v>
+        <v>391</v>
       </c>
       <c r="H22" s="7">
         <v>447</v>
@@ -6649,13 +6637,13 @@
         <v>279462</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>548</v>
+        <v>230</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="M22" s="7">
         <v>703</v>
@@ -6664,13 +6652,13 @@
         <v>514770</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6685,13 +6673,13 @@
         <v>3373610</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>5343</v>
@@ -6700,13 +6688,13 @@
         <v>3793619</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>8704</v>
@@ -6715,18 +6703,18 @@
         <v>7167230</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P47A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P47A-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7997473-A223-4B11-8015-68D0731B9A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4F309D8-2CFC-405C-B1B4-E846C5CCE7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A4BACC70-2BE7-4FEB-9B14-1326498F90F9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{78D5DA3A-F3EC-45DD-A535-260EC44B13DC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="541">
   <si>
     <t>Población según su autopercepción del peso respecto de su talla en 2007 (Tasa respuesta: 99,78%)</t>
   </si>
@@ -77,1542 +77,1521 @@
     <t>3,9%</t>
   </si>
   <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
     <t>2,84%</t>
   </si>
   <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>Algo mayor de lo normal</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>Bastante mayor de lo normal</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
   </si>
   <si>
     <t>3,62%</t>
   </si>
   <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>Algo mayor de lo normal</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>Bastante mayor de lo normal</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
     <t>5,08%</t>
   </si>
   <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción del peso respecto de su talla en 2012 (Tasa respuesta: 99,09%)</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
   </si>
   <si>
     <t>10,15%</t>
   </si>
   <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción del peso respecto de su talla en 2016 (Tasa respuesta: 98,87%)</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
   </si>
   <si>
     <t>3,7%</t>
   </si>
   <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción del peso respecto de su talla en 2023 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
   </si>
   <si>
     <t>60,36%</t>
   </si>
   <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción del peso respecto de su talla en 2012 (Tasa respuesta: 99,09%)</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
   </si>
   <si>
     <t>4,86%</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción del peso respecto de su talla en 2015 (Tasa respuesta: 98,87%)</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción del peso respecto de su talla en 2023 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
     <t>6,22%</t>
   </si>
   <si>
@@ -1677,9 +1656,6 @@
   </si>
   <si>
     <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
   </si>
   <si>
     <t>6,56%</t>
@@ -2097,7 +2073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25CC434F-5E42-4E1C-8FAF-5BE16362365C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED46A7E-D492-4941-9818-6039C8DF2369}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2251,7 +2227,7 @@
         <v>66434</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>17</v>
@@ -2511,10 +2487,10 @@
         <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2529,13 +2505,13 @@
         <v>1104114</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>931</v>
@@ -2544,13 +2520,13 @@
         <v>949862</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>2001</v>
@@ -2559,13 +2535,13 @@
         <v>2053976</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,13 +2556,13 @@
         <v>426151</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>425</v>
@@ -2595,13 +2571,13 @@
         <v>433332</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>841</v>
@@ -2610,13 +2586,13 @@
         <v>859483</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2631,13 +2607,13 @@
         <v>89533</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>133</v>
@@ -2646,13 +2622,13 @@
         <v>135817</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>224</v>
@@ -2661,13 +2637,13 @@
         <v>225350</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2723,7 +2699,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2735,13 +2711,13 @@
         <v>29881</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -2750,13 +2726,13 @@
         <v>20613</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>47</v>
@@ -2765,13 +2741,13 @@
         <v>50493</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2786,13 +2762,13 @@
         <v>355320</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H15" s="7">
         <v>296</v>
@@ -2801,13 +2777,13 @@
         <v>312123</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M15" s="7">
         <v>636</v>
@@ -2816,13 +2792,13 @@
         <v>667444</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,13 +2813,13 @@
         <v>140537</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>104</v>
@@ -2852,13 +2828,13 @@
         <v>110650</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>241</v>
@@ -2867,13 +2843,13 @@
         <v>251187</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2888,13 +2864,13 @@
         <v>25670</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -2903,13 +2879,13 @@
         <v>31049</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>53</v>
@@ -2918,10 +2894,10 @@
         <v>56719</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>121</v>
@@ -2992,13 +2968,13 @@
         <v>141824</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H19" s="7">
         <v>110</v>
@@ -3007,13 +2983,13 @@
         <v>114817</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M19" s="7">
         <v>243</v>
@@ -3022,13 +2998,13 @@
         <v>256641</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,7 +3232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4D307C-0F50-48D1-8497-32852D16F75D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1787C01-9B91-4DE0-8D5F-BC3460ACA934}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3383,10 +3359,10 @@
         <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>37</v>
@@ -3395,13 +3371,13 @@
         <v>40993</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>83</v>
@@ -3410,13 +3386,13 @@
         <v>90331</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,13 +3407,13 @@
         <v>552150</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>541</v>
@@ -3446,13 +3422,13 @@
         <v>584183</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>1057</v>
@@ -3461,13 +3437,13 @@
         <v>1136333</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,13 +3458,13 @@
         <v>282696</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H6" s="7">
         <v>484</v>
@@ -3497,13 +3473,13 @@
         <v>512062</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M6" s="7">
         <v>749</v>
@@ -3512,13 +3488,13 @@
         <v>794758</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3533,10 +3509,10 @@
         <v>80754</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>186</v>
@@ -3667,7 +3643,7 @@
         <v>161866</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>199</v>
@@ -3790,13 +3766,13 @@
         <v>101446</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H12" s="7">
         <v>149</v>
@@ -3805,13 +3781,13 @@
         <v>160413</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M12" s="7">
         <v>241</v>
@@ -3820,13 +3796,13 @@
         <v>261859</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,7 +3858,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3894,13 +3870,13 @@
         <v>19702</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>94</v>
       </c>
       <c r="H14" s="7">
         <v>26</v>
@@ -3909,13 +3885,13 @@
         <v>28858</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>44</v>
@@ -3924,13 +3900,13 @@
         <v>48560</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,13 +3921,13 @@
         <v>314336</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H15" s="7">
         <v>266</v>
@@ -3960,13 +3936,13 @@
         <v>299128</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M15" s="7">
         <v>552</v>
@@ -3975,13 +3951,13 @@
         <v>613464</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>244</v>
+        <v>102</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,13 +3972,13 @@
         <v>116190</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H16" s="7">
         <v>96</v>
@@ -4011,13 +3987,13 @@
         <v>103806</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M16" s="7">
         <v>205</v>
@@ -4026,13 +4002,13 @@
         <v>219996</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,13 +4023,13 @@
         <v>26669</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -4062,13 +4038,13 @@
         <v>24766</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
@@ -4077,13 +4053,13 @@
         <v>51435</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,13 +4127,13 @@
         <v>165245</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H19" s="7">
         <v>124</v>
@@ -4166,13 +4142,13 @@
         <v>135513</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>267</v>
+        <v>165</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M19" s="7">
         <v>282</v>
@@ -4181,13 +4157,13 @@
         <v>300757</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>93</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,13 +4178,13 @@
         <v>2097470</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H20" s="7">
         <v>1710</v>
@@ -4217,13 +4193,13 @@
         <v>1845083</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>3680</v>
@@ -4232,13 +4208,13 @@
         <v>3942552</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,13 +4229,13 @@
         <v>917862</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>280</v>
+        <v>145</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>281</v>
+        <v>104</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="H21" s="7">
         <v>1088</v>
@@ -4268,13 +4244,13 @@
         <v>1169963</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="M21" s="7">
         <v>1950</v>
@@ -4283,13 +4259,13 @@
         <v>2087825</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,13 +4280,13 @@
         <v>208869</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>225</v>
+        <v>284</v>
       </c>
       <c r="H22" s="7">
         <v>339</v>
@@ -4319,13 +4295,13 @@
         <v>366476</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="M22" s="7">
         <v>525</v>
@@ -4334,13 +4310,13 @@
         <v>575345</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4415,7 +4391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15973F3-047E-4B58-8532-2F33563642AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3F4E49-02B4-486A-83B6-64EFC98DE9EE}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4432,7 +4408,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4539,13 +4515,13 @@
         <v>28898</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H4" s="7">
         <v>25</v>
@@ -4554,13 +4530,13 @@
         <v>27814</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="M4" s="7">
         <v>54</v>
@@ -4569,13 +4545,13 @@
         <v>56712</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>306</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,13 +4566,13 @@
         <v>418873</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="H5" s="7">
         <v>415</v>
@@ -4605,28 +4581,28 @@
         <v>462381</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="M5" s="7">
         <v>841</v>
       </c>
       <c r="N5" s="7">
-        <v>881254</v>
+        <v>881253</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,13 +4617,13 @@
         <v>229195</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H6" s="7">
         <v>336</v>
@@ -4656,13 +4632,13 @@
         <v>373314</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="M6" s="7">
         <v>564</v>
@@ -4671,13 +4647,13 @@
         <v>602509</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,13 +4668,13 @@
         <v>58733</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>227</v>
+        <v>317</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="H7" s="7">
         <v>96</v>
@@ -4707,13 +4683,13 @@
         <v>109080</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M7" s="7">
         <v>154</v>
@@ -4722,13 +4698,13 @@
         <v>167813</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>324</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4770,7 +4746,7 @@
         <v>1613</v>
       </c>
       <c r="N8" s="7">
-        <v>1708289</v>
+        <v>1708288</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>49</v>
@@ -4796,13 +4772,13 @@
         <v>89758</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H9" s="7">
         <v>81</v>
@@ -4811,13 +4787,13 @@
         <v>83399</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>332</v>
+        <v>163</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="M9" s="7">
         <v>164</v>
@@ -4826,13 +4802,13 @@
         <v>173157</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,13 +4823,13 @@
         <v>1325691</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>131</v>
+        <v>332</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="H10" s="7">
         <v>1147</v>
@@ -4862,13 +4838,13 @@
         <v>1186872</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="M10" s="7">
         <v>2406</v>
@@ -4877,13 +4853,13 @@
         <v>2512564</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,13 +4874,13 @@
         <v>527994</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H11" s="7">
         <v>516</v>
@@ -4913,13 +4889,13 @@
         <v>541954</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="M11" s="7">
         <v>1006</v>
@@ -4928,13 +4904,13 @@
         <v>1069948</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +4925,13 @@
         <v>121824</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>357</v>
+        <v>121</v>
       </c>
       <c r="H12" s="7">
         <v>143</v>
@@ -4964,13 +4940,13 @@
         <v>152679</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>358</v>
+        <v>85</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>92</v>
+        <v>352</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="M12" s="7">
         <v>253</v>
@@ -4979,13 +4955,13 @@
         <v>274503</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>362</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,7 +5017,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5053,13 +5029,13 @@
         <v>23970</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -5068,13 +5044,13 @@
         <v>21745</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>367</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -5083,13 +5059,13 @@
         <v>45715</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,13 +5080,13 @@
         <v>366485</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="H15" s="7">
         <v>336</v>
@@ -5119,13 +5095,13 @@
         <v>345945</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="M15" s="7">
         <v>674</v>
@@ -5134,13 +5110,13 @@
         <v>712431</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5155,13 +5131,13 @@
         <v>123002</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="H16" s="7">
         <v>130</v>
@@ -5170,13 +5146,13 @@
         <v>137773</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>385</v>
+        <v>280</v>
       </c>
       <c r="M16" s="7">
         <v>244</v>
@@ -5185,13 +5161,13 @@
         <v>260775</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,13 +5182,13 @@
         <v>30548</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>389</v>
+        <v>252</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="H17" s="7">
         <v>39</v>
@@ -5221,13 +5197,13 @@
         <v>43677</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -5236,13 +5212,13 @@
         <v>74225</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,10 +5289,10 @@
         <v>57</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="H19" s="7">
         <v>127</v>
@@ -5325,13 +5301,13 @@
         <v>132958</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>199</v>
+        <v>388</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>267</v>
+        <v>389</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="M19" s="7">
         <v>261</v>
@@ -5340,13 +5316,13 @@
         <v>275584</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,13 +5337,13 @@
         <v>2111050</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="H20" s="7">
         <v>1898</v>
@@ -5376,13 +5352,13 @@
         <v>1995198</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="M20" s="7">
         <v>3921</v>
@@ -5391,13 +5367,13 @@
         <v>4106248</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,13 +5388,13 @@
         <v>880191</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="H21" s="7">
         <v>982</v>
@@ -5427,13 +5403,13 @@
         <v>1053041</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="M21" s="7">
         <v>1814</v>
@@ -5442,13 +5418,13 @@
         <v>1933232</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>418</v>
+        <v>247</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,13 +5439,13 @@
         <v>211105</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>226</v>
+        <v>410</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="H22" s="7">
         <v>278</v>
@@ -5478,13 +5454,13 @@
         <v>305437</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>415</v>
       </c>
       <c r="M22" s="7">
         <v>471</v>
@@ -5493,13 +5469,13 @@
         <v>516542</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,7 +5550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F49CA46-5DED-4D56-AA42-DC642DB3DBF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91CDB4B8-042E-4424-AD42-1A8A7CE0B247}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5591,7 +5567,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5698,13 +5674,13 @@
         <v>29747</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="H4" s="7">
         <v>51</v>
@@ -5713,13 +5689,13 @@
         <v>30695</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>336</v>
+        <v>422</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="M4" s="7">
         <v>86</v>
@@ -5728,13 +5704,13 @@
         <v>60442</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>433</v>
+        <v>254</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5749,13 +5725,13 @@
         <v>269920</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="H5" s="7">
         <v>689</v>
@@ -5764,13 +5740,13 @@
         <v>419534</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="M5" s="7">
         <v>1038</v>
@@ -5779,13 +5755,13 @@
         <v>689454</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,13 +5776,13 @@
         <v>186983</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="H6" s="7">
         <v>536</v>
@@ -5815,13 +5791,13 @@
         <v>301790</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="M6" s="7">
         <v>776</v>
@@ -5830,13 +5806,13 @@
         <v>488772</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,13 +5827,13 @@
         <v>54042</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="H7" s="7">
         <v>146</v>
@@ -5866,13 +5842,13 @@
         <v>80953</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="M7" s="7">
         <v>212</v>
@@ -5881,13 +5857,13 @@
         <v>134995</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5955,13 +5931,13 @@
         <v>115965</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>461</v>
+        <v>53</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>232</v>
+        <v>454</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="H9" s="7">
         <v>160</v>
@@ -5970,13 +5946,13 @@
         <v>154151</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>159</v>
+        <v>417</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="M9" s="7">
         <v>240</v>
@@ -5985,13 +5961,13 @@
         <v>270116</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6006,13 +5982,13 @@
         <v>1192867</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H10" s="7">
         <v>1573</v>
@@ -6021,13 +5997,13 @@
         <v>1324382</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="M10" s="7">
         <v>2680</v>
@@ -6036,13 +6012,13 @@
         <v>2517249</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6057,13 +6033,13 @@
         <v>703520</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="H11" s="7">
         <v>953</v>
@@ -6072,13 +6048,13 @@
         <v>619902</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="M11" s="7">
         <v>1603</v>
@@ -6087,13 +6063,13 @@
         <v>1323422</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>348</v>
+        <v>476</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6108,13 +6084,13 @@
         <v>147527</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>392</v>
+        <v>479</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>484</v>
+        <v>225</v>
       </c>
       <c r="H12" s="7">
         <v>231</v>
@@ -6123,13 +6099,13 @@
         <v>148326</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>486</v>
+        <v>326</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="M12" s="7">
         <v>384</v>
@@ -6138,13 +6114,13 @@
         <v>295853</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6200,7 +6176,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6212,13 +6188,13 @@
         <v>32747</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>492</v>
+        <v>115</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -6227,13 +6203,13 @@
         <v>30682</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="M14" s="7">
         <v>74</v>
@@ -6242,13 +6218,13 @@
         <v>63428</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6263,13 +6239,13 @@
         <v>398461</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="H15" s="7">
         <v>602</v>
@@ -6278,13 +6254,13 @@
         <v>438702</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>341</v>
+        <v>494</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="M15" s="7">
         <v>1008</v>
@@ -6293,13 +6269,13 @@
         <v>837164</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>97</v>
+        <v>496</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6314,13 +6290,13 @@
         <v>208092</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="H16" s="7">
         <v>289</v>
@@ -6329,13 +6305,13 @@
         <v>194319</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="M16" s="7">
         <v>496</v>
@@ -6344,13 +6320,13 @@
         <v>402411</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6365,10 +6341,10 @@
         <v>33740</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>513</v>
+        <v>387</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>147</v>
@@ -6380,13 +6356,13 @@
         <v>50183</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>516</v>
+        <v>411</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="M17" s="7">
         <v>107</v>
@@ -6395,13 +6371,13 @@
         <v>83922</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6469,13 +6445,13 @@
         <v>178459</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="H19" s="7">
         <v>254</v>
@@ -6484,13 +6460,13 @@
         <v>215528</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>522</v>
+        <v>381</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>230</v>
+        <v>358</v>
       </c>
       <c r="M19" s="7">
         <v>400</v>
@@ -6499,13 +6475,13 @@
         <v>393987</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>198</v>
+        <v>516</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6520,13 +6496,13 @@
         <v>1861248</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="H20" s="7">
         <v>2864</v>
@@ -6535,13 +6511,13 @@
         <v>2182618</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="M20" s="7">
         <v>4726</v>
@@ -6550,13 +6526,13 @@
         <v>4043867</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6571,13 +6547,13 @@
         <v>1098594</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="H21" s="7">
         <v>1778</v>
@@ -6586,13 +6562,13 @@
         <v>1116011</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="M21" s="7">
         <v>2875</v>
@@ -6601,13 +6577,13 @@
         <v>2214606</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6622,13 +6598,13 @@
         <v>235309</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="H22" s="7">
         <v>447</v>
@@ -6637,13 +6613,13 @@
         <v>279462</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>230</v>
+        <v>358</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="M22" s="7">
         <v>703</v>
@@ -6652,13 +6628,13 @@
         <v>514770</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>546</v>
+        <v>412</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P47A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P47A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4F309D8-2CFC-405C-B1B4-E846C5CCE7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CBAC885-BFF0-4394-81D5-ECA66F66AF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{78D5DA3A-F3EC-45DD-A535-260EC44B13DC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{127828DF-2CB0-48FB-A027-87010E1CABD0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="553">
   <si>
     <t>Población según su autopercepción del peso respecto de su talla en 2007 (Tasa respuesta: 99,78%)</t>
   </si>
@@ -77,1591 +77,1627 @@
     <t>3,9%</t>
   </si>
   <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>Algo mayor de lo normal</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>Bastante mayor de lo normal</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción del peso respecto de su talla en 2012 (Tasa respuesta: 99,09%)</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción del peso respecto de su talla en 2016 (Tasa respuesta: 98,87%)</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>Algo mayor de lo normal</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
   </si>
   <si>
     <t>34,31%</t>
   </si>
   <si>
-    <t>Bastante mayor de lo normal</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>Población según su autopercepción del peso respecto de su talla en 2023 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
   </si>
   <si>
     <t>5,37%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
   </si>
   <si>
     <t>62,89%</t>
   </si>
   <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
   </si>
   <si>
     <t>3,62%</t>
   </si>
   <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción del peso respecto de su talla en 2012 (Tasa respuesta: 99,09%)</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
   </si>
   <si>
     <t>6,47%</t>
   </si>
   <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción del peso respecto de su talla en 2016 (Tasa respuesta: 98,87%)</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
+    <t>8,17%</t>
   </si>
   <si>
     <t>7,18%</t>
   </si>
   <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>Población según su autopercepción del peso respecto de su talla en 2023 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
   </si>
 </sst>
 </file>
@@ -2073,7 +2109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED46A7E-D492-4941-9818-6039C8DF2369}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A976CB35-B5F7-4324-A326-A7DFDF03CC46}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2227,19 +2263,19 @@
         <v>66434</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>584</v>
@@ -2248,13 +2284,13 @@
         <v>582498</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>548</v>
@@ -2263,13 +2299,13 @@
         <v>559107</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>1132</v>
@@ -2278,19 +2314,19 @@
         <v>1141604</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>303</v>
@@ -2299,13 +2335,13 @@
         <v>294716</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>452</v>
@@ -2314,13 +2350,13 @@
         <v>461399</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>755</v>
@@ -2329,19 +2365,19 @@
         <v>756115</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>111</v>
@@ -2350,13 +2386,13 @@
         <v>110871</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>260</v>
@@ -2365,13 +2401,13 @@
         <v>263178</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>371</v>
@@ -2380,13 +2416,13 @@
         <v>374049</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,13 +2437,13 @@
         <v>1028178</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>1286</v>
@@ -2416,13 +2452,13 @@
         <v>1310025</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>2320</v>
@@ -2431,18 +2467,18 @@
         <v>2338202</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2454,13 +2490,13 @@
         <v>71850</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>64</v>
@@ -2469,13 +2505,13 @@
         <v>67863</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>134</v>
@@ -2484,19 +2520,19 @@
         <v>139713</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>1070</v>
@@ -2505,13 +2541,13 @@
         <v>1104114</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>931</v>
@@ -2520,13 +2556,13 @@
         <v>949862</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>2001</v>
@@ -2535,19 +2571,19 @@
         <v>2053976</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
         <v>416</v>
@@ -2556,13 +2592,13 @@
         <v>426151</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>425</v>
@@ -2571,13 +2607,13 @@
         <v>433332</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>841</v>
@@ -2586,19 +2622,19 @@
         <v>859483</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>91</v>
@@ -2607,13 +2643,13 @@
         <v>89533</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>133</v>
@@ -2622,13 +2658,13 @@
         <v>135817</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>224</v>
@@ -2637,13 +2673,13 @@
         <v>225350</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,13 +2694,13 @@
         <v>1691649</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>1553</v>
@@ -2673,13 +2709,13 @@
         <v>1586874</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>3200</v>
@@ -2688,18 +2724,18 @@
         <v>3278522</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2711,13 +2747,13 @@
         <v>29881</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -2726,13 +2762,13 @@
         <v>20613</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>47</v>
@@ -2741,19 +2777,19 @@
         <v>50493</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
         <v>340</v>
@@ -2762,13 +2798,13 @@
         <v>355320</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>296</v>
@@ -2777,13 +2813,13 @@
         <v>312123</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>636</v>
@@ -2792,19 +2828,19 @@
         <v>667444</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
         <v>137</v>
@@ -2813,13 +2849,13 @@
         <v>140537</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>104</v>
@@ -2828,13 +2864,13 @@
         <v>110650</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>241</v>
@@ -2843,19 +2879,19 @@
         <v>251187</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>23</v>
@@ -2864,13 +2900,13 @@
         <v>25670</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -2879,13 +2915,13 @@
         <v>31049</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>53</v>
@@ -2894,13 +2930,13 @@
         <v>56719</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,13 +2951,13 @@
         <v>551408</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>450</v>
@@ -2930,13 +2966,13 @@
         <v>474435</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>977</v>
@@ -2945,13 +2981,13 @@
         <v>1025843</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,13 +3004,13 @@
         <v>141824</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>110</v>
@@ -2983,13 +3019,13 @@
         <v>114817</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>243</v>
@@ -2998,19 +3034,19 @@
         <v>256641</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>1994</v>
@@ -3019,13 +3055,13 @@
         <v>2041932</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>1775</v>
@@ -3034,13 +3070,13 @@
         <v>1821092</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>3769</v>
@@ -3049,19 +3085,19 @@
         <v>3863024</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
         <v>856</v>
@@ -3070,28 +3106,28 @@
         <v>861404</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>981</v>
       </c>
       <c r="I21" s="7">
-        <v>1005381</v>
+        <v>1005380</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>1837</v>
@@ -3100,19 +3136,19 @@
         <v>1866785</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>225</v>
@@ -3121,13 +3157,13 @@
         <v>226074</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>423</v>
@@ -3136,13 +3172,13 @@
         <v>430044</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>648</v>
@@ -3151,13 +3187,13 @@
         <v>656118</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,28 +3208,28 @@
         <v>3271234</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>3289</v>
       </c>
       <c r="I23" s="7">
-        <v>3371334</v>
+        <v>3371333</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>6497</v>
@@ -3202,18 +3238,18 @@
         <v>6642568</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3232,7 +3268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1787C01-9B91-4DE0-8D5F-BC3460ACA934}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE87B28-59B5-493C-9682-D16CE83D1B10}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3249,7 +3285,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3356,13 +3392,13 @@
         <v>49339</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>37</v>
@@ -3371,13 +3407,13 @@
         <v>40993</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>18</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>83</v>
@@ -3386,19 +3422,19 @@
         <v>90331</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>516</v>
@@ -3407,13 +3443,13 @@
         <v>552150</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>541</v>
@@ -3422,13 +3458,13 @@
         <v>584183</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M5" s="7">
         <v>1057</v>
@@ -3437,19 +3473,19 @@
         <v>1136333</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>265</v>
@@ -3458,13 +3494,13 @@
         <v>282696</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H6" s="7">
         <v>484</v>
@@ -3473,13 +3509,13 @@
         <v>512062</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>749</v>
@@ -3488,19 +3524,19 @@
         <v>794758</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>73</v>
@@ -3509,13 +3545,13 @@
         <v>80754</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H7" s="7">
         <v>168</v>
@@ -3524,13 +3560,13 @@
         <v>181297</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M7" s="7">
         <v>241</v>
@@ -3539,13 +3575,13 @@
         <v>262051</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,13 +3596,13 @@
         <v>964939</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>1230</v>
@@ -3575,13 +3611,13 @@
         <v>1318535</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>2130</v>
@@ -3590,18 +3626,18 @@
         <v>2283474</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -3613,13 +3649,13 @@
         <v>96203</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="H9" s="7">
         <v>61</v>
@@ -3628,13 +3664,13 @@
         <v>65662</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>198</v>
+        <v>94</v>
       </c>
       <c r="M9" s="7">
         <v>155</v>
@@ -3643,19 +3679,19 @@
         <v>161866</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>1168</v>
@@ -3664,13 +3700,13 @@
         <v>1230983</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>903</v>
@@ -3679,13 +3715,13 @@
         <v>961772</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>2071</v>
@@ -3694,19 +3730,19 @@
         <v>2192755</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
         <v>488</v>
@@ -3715,13 +3751,13 @@
         <v>518976</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>508</v>
@@ -3730,13 +3766,13 @@
         <v>554095</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>996</v>
@@ -3745,19 +3781,19 @@
         <v>1073071</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>92</v>
@@ -3766,13 +3802,13 @@
         <v>101446</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>57</v>
+        <v>219</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H12" s="7">
         <v>149</v>
@@ -3781,13 +3817,13 @@
         <v>160413</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M12" s="7">
         <v>241</v>
@@ -3796,13 +3832,13 @@
         <v>261859</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,13 +3853,13 @@
         <v>1947608</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>1621</v>
@@ -3832,13 +3868,13 @@
         <v>1741942</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>3463</v>
@@ -3847,18 +3883,18 @@
         <v>3689550</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3870,13 +3906,13 @@
         <v>19702</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>94</v>
+        <v>229</v>
       </c>
       <c r="H14" s="7">
         <v>26</v>
@@ -3885,13 +3921,13 @@
         <v>28858</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M14" s="7">
         <v>44</v>
@@ -3900,19 +3936,19 @@
         <v>48560</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>232</v>
+        <v>129</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
         <v>286</v>
@@ -3921,13 +3957,13 @@
         <v>314336</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H15" s="7">
         <v>266</v>
@@ -3936,13 +3972,13 @@
         <v>299128</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M15" s="7">
         <v>552</v>
@@ -3951,19 +3987,19 @@
         <v>613464</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>242</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
         <v>109</v>
@@ -3972,13 +4008,13 @@
         <v>116190</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H16" s="7">
         <v>96</v>
@@ -3987,13 +4023,13 @@
         <v>103806</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M16" s="7">
         <v>205</v>
@@ -4002,19 +4038,19 @@
         <v>219996</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>21</v>
@@ -4023,13 +4059,13 @@
         <v>26669</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>252</v>
+        <v>130</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -4038,13 +4074,13 @@
         <v>24766</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
@@ -4053,13 +4089,13 @@
         <v>51435</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,13 +4110,13 @@
         <v>476898</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>410</v>
@@ -4089,13 +4125,13 @@
         <v>456558</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>844</v>
@@ -4104,13 +4140,13 @@
         <v>933456</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,13 +4163,13 @@
         <v>165245</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H19" s="7">
         <v>124</v>
@@ -4142,13 +4178,13 @@
         <v>135513</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>165</v>
+        <v>264</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M19" s="7">
         <v>282</v>
@@ -4157,19 +4193,19 @@
         <v>300757</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>1970</v>
@@ -4178,13 +4214,13 @@
         <v>2097470</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H20" s="7">
         <v>1710</v>
@@ -4193,13 +4229,13 @@
         <v>1845083</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M20" s="7">
         <v>3680</v>
@@ -4208,19 +4244,19 @@
         <v>3942552</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
         <v>862</v>
@@ -4229,13 +4265,13 @@
         <v>917862</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>145</v>
+        <v>277</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>104</v>
+        <v>278</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H21" s="7">
         <v>1088</v>
@@ -4244,13 +4280,13 @@
         <v>1169963</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M21" s="7">
         <v>1950</v>
@@ -4259,19 +4295,19 @@
         <v>2087825</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>186</v>
@@ -4280,13 +4316,13 @@
         <v>208869</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>283</v>
+        <v>13</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H22" s="7">
         <v>339</v>
@@ -4295,13 +4331,13 @@
         <v>366476</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M22" s="7">
         <v>525</v>
@@ -4310,13 +4346,13 @@
         <v>575345</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>290</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4331,13 +4367,13 @@
         <v>3389446</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>3261</v>
@@ -4346,13 +4382,13 @@
         <v>3517035</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>6437</v>
@@ -4361,18 +4397,18 @@
         <v>6906480</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4391,7 +4427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3F4E49-02B4-486A-83B6-64EFC98DE9EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9984E1E4-1294-4A86-9249-2F137C04F4B1}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4408,7 +4444,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4515,13 +4551,13 @@
         <v>28898</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H4" s="7">
         <v>25</v>
@@ -4530,13 +4566,13 @@
         <v>27814</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>260</v>
+        <v>52</v>
       </c>
       <c r="M4" s="7">
         <v>54</v>
@@ -4545,19 +4581,19 @@
         <v>56712</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>298</v>
+        <v>228</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>263</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>426</v>
@@ -4608,7 +4644,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>228</v>
@@ -4659,7 +4695,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>58</v>
@@ -4719,13 +4755,13 @@
         <v>735699</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>872</v>
@@ -4734,13 +4770,13 @@
         <v>972590</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>1613</v>
@@ -4749,18 +4785,18 @@
         <v>1708288</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -4772,13 +4808,13 @@
         <v>89758</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H9" s="7">
         <v>81</v>
@@ -4787,13 +4823,13 @@
         <v>83399</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>163</v>
+        <v>328</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M9" s="7">
         <v>164</v>
@@ -4802,19 +4838,19 @@
         <v>173157</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>1259</v>
@@ -4823,13 +4859,13 @@
         <v>1325691</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H10" s="7">
         <v>1147</v>
@@ -4838,13 +4874,13 @@
         <v>1186872</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>337</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>2406</v>
@@ -4853,19 +4889,19 @@
         <v>2512564</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
         <v>490</v>
@@ -4874,13 +4910,13 @@
         <v>527994</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H11" s="7">
         <v>516</v>
@@ -4889,13 +4925,13 @@
         <v>541954</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M11" s="7">
         <v>1006</v>
@@ -4904,19 +4940,19 @@
         <v>1069948</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>110</v>
@@ -4925,13 +4961,13 @@
         <v>121824</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>351</v>
+        <v>94</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>121</v>
+        <v>352</v>
       </c>
       <c r="H12" s="7">
         <v>143</v>
@@ -4940,13 +4976,13 @@
         <v>152679</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>85</v>
+        <v>353</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M12" s="7">
         <v>253</v>
@@ -4955,13 +4991,13 @@
         <v>274503</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>289</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,13 +5012,13 @@
         <v>2065268</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>1887</v>
@@ -4991,13 +5027,13 @@
         <v>1964904</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>3829</v>
@@ -5006,18 +5042,18 @@
         <v>4030172</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5029,13 +5065,13 @@
         <v>23970</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>358</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -5044,13 +5080,13 @@
         <v>21745</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>362</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -5059,19 +5095,19 @@
         <v>45715</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>360</v>
+        <v>219</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
         <v>338</v>
@@ -5080,13 +5116,13 @@
         <v>366485</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H15" s="7">
         <v>336</v>
@@ -5095,13 +5131,13 @@
         <v>345945</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="M15" s="7">
         <v>674</v>
@@ -5110,19 +5146,19 @@
         <v>712431</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
         <v>114</v>
@@ -5131,13 +5167,13 @@
         <v>123002</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H16" s="7">
         <v>130</v>
@@ -5146,13 +5182,13 @@
         <v>137773</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="M16" s="7">
         <v>244</v>
@@ -5161,19 +5197,19 @@
         <v>260775</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>25</v>
@@ -5182,13 +5218,13 @@
         <v>30548</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>252</v>
+        <v>383</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="H17" s="7">
         <v>39</v>
@@ -5197,13 +5233,13 @@
         <v>43677</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -5212,13 +5248,13 @@
         <v>74225</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,13 +5269,13 @@
         <v>544005</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>526</v>
@@ -5248,13 +5284,13 @@
         <v>549140</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>1025</v>
@@ -5263,13 +5299,13 @@
         <v>1093146</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,13 +5322,13 @@
         <v>142626</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="H19" s="7">
         <v>127</v>
@@ -5301,13 +5337,13 @@
         <v>132958</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="M19" s="7">
         <v>261</v>
@@ -5316,19 +5352,19 @@
         <v>275584</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>2023</v>
@@ -5337,13 +5373,13 @@
         <v>2111050</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="H20" s="7">
         <v>1898</v>
@@ -5352,13 +5388,13 @@
         <v>1995198</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="M20" s="7">
         <v>3921</v>
@@ -5367,19 +5403,19 @@
         <v>4106248</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
         <v>832</v>
@@ -5388,13 +5424,13 @@
         <v>880191</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H21" s="7">
         <v>982</v>
@@ -5403,13 +5439,13 @@
         <v>1053041</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="M21" s="7">
         <v>1814</v>
@@ -5418,19 +5454,19 @@
         <v>1933232</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>247</v>
+        <v>414</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>193</v>
@@ -5439,13 +5475,13 @@
         <v>211105</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>411</v>
+        <v>57</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>412</v>
+        <v>224</v>
       </c>
       <c r="H22" s="7">
         <v>278</v>
@@ -5454,13 +5490,13 @@
         <v>305437</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="M22" s="7">
         <v>471</v>
@@ -5469,13 +5505,13 @@
         <v>516542</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>418</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,13 +5526,13 @@
         <v>3344972</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>3285</v>
@@ -5505,13 +5541,13 @@
         <v>3486634</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>6467</v>
@@ -5520,18 +5556,18 @@
         <v>6831606</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -5550,7 +5586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91CDB4B8-042E-4424-AD42-1A8A7CE0B247}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B41E7E-BFF3-4D18-809E-A980EB5451A8}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5567,7 +5603,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5674,13 +5710,13 @@
         <v>29747</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>127</v>
+        <v>424</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="H4" s="7">
         <v>51</v>
@@ -5689,13 +5725,13 @@
         <v>30695</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>422</v>
+        <v>332</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="M4" s="7">
         <v>86</v>
@@ -5704,19 +5740,19 @@
         <v>60442</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>254</v>
+        <v>124</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>349</v>
@@ -5725,13 +5761,13 @@
         <v>269920</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="H5" s="7">
         <v>689</v>
@@ -5740,13 +5776,13 @@
         <v>419534</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="M5" s="7">
         <v>1038</v>
@@ -5755,19 +5791,19 @@
         <v>689454</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>435</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>240</v>
@@ -5776,13 +5812,13 @@
         <v>186983</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H6" s="7">
         <v>536</v>
@@ -5791,13 +5827,13 @@
         <v>301790</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M6" s="7">
         <v>776</v>
@@ -5806,19 +5842,19 @@
         <v>488772</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>66</v>
@@ -5827,13 +5863,13 @@
         <v>54042</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H7" s="7">
         <v>146</v>
@@ -5842,13 +5878,13 @@
         <v>80953</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M7" s="7">
         <v>212</v>
@@ -5857,13 +5893,13 @@
         <v>134995</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5878,13 +5914,13 @@
         <v>540692</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>1422</v>
@@ -5893,13 +5929,13 @@
         <v>832971</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>2112</v>
@@ -5908,18 +5944,18 @@
         <v>1373664</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -5931,13 +5967,13 @@
         <v>115965</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>53</v>
+        <v>456</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="H9" s="7">
         <v>160</v>
@@ -5946,13 +5982,13 @@
         <v>154151</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>417</v>
+        <v>459</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>256</v>
+        <v>460</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="M9" s="7">
         <v>240</v>
@@ -5961,19 +5997,19 @@
         <v>270116</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>458</v>
+        <v>218</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>1107</v>
@@ -5982,13 +6018,13 @@
         <v>1192867</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="H10" s="7">
         <v>1573</v>
@@ -5997,13 +6033,13 @@
         <v>1324382</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="M10" s="7">
         <v>2680</v>
@@ -6012,19 +6048,19 @@
         <v>2517249</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
         <v>650</v>
@@ -6033,13 +6069,13 @@
         <v>703520</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="H11" s="7">
         <v>953</v>
@@ -6048,13 +6084,13 @@
         <v>619902</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>472</v>
+        <v>344</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="M11" s="7">
         <v>1603</v>
@@ -6063,19 +6099,19 @@
         <v>1323422</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>153</v>
@@ -6084,13 +6120,13 @@
         <v>147527</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>479</v>
+        <v>253</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>225</v>
+        <v>482</v>
       </c>
       <c r="H12" s="7">
         <v>231</v>
@@ -6099,13 +6135,13 @@
         <v>148326</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>326</v>
+        <v>484</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="M12" s="7">
         <v>384</v>
@@ -6114,13 +6150,13 @@
         <v>295853</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>160</v>
+        <v>486</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6135,13 +6171,13 @@
         <v>2159879</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>2917</v>
@@ -6150,33 +6186,33 @@
         <v>2246762</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>4907</v>
       </c>
       <c r="N13" s="7">
-        <v>4406641</v>
+        <v>4406640</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6188,13 +6224,13 @@
         <v>32747</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -6203,13 +6239,13 @@
         <v>30682</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="M14" s="7">
         <v>74</v>
@@ -6218,19 +6254,19 @@
         <v>63428</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
         <v>406</v>
@@ -6239,13 +6275,13 @@
         <v>398461</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="H15" s="7">
         <v>602</v>
@@ -6254,13 +6290,13 @@
         <v>438702</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="M15" s="7">
         <v>1008</v>
@@ -6269,19 +6305,19 @@
         <v>837164</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
         <v>207</v>
@@ -6290,13 +6326,13 @@
         <v>208092</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="H16" s="7">
         <v>289</v>
@@ -6305,13 +6341,13 @@
         <v>194319</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="M16" s="7">
         <v>496</v>
@@ -6320,19 +6356,19 @@
         <v>402411</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>37</v>
@@ -6341,13 +6377,13 @@
         <v>33740</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>387</v>
+        <v>514</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>147</v>
+        <v>516</v>
       </c>
       <c r="H17" s="7">
         <v>70</v>
@@ -6356,13 +6392,13 @@
         <v>50183</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>509</v>
+        <v>352</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>411</v>
+        <v>517</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="M17" s="7">
         <v>107</v>
@@ -6371,13 +6407,13 @@
         <v>83922</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>512</v>
+        <v>333</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6392,13 +6428,13 @@
         <v>673039</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>1004</v>
@@ -6407,13 +6443,13 @@
         <v>713886</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>1685</v>
@@ -6422,13 +6458,13 @@
         <v>1386926</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6445,13 +6481,13 @@
         <v>178459</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>425</v>
+        <v>521</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="H19" s="7">
         <v>254</v>
@@ -6460,13 +6496,13 @@
         <v>215528</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>381</v>
+        <v>523</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M19" s="7">
         <v>400</v>
@@ -6475,19 +6511,19 @@
         <v>393987</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>1862</v>
@@ -6496,13 +6532,13 @@
         <v>1861248</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="H20" s="7">
         <v>2864</v>
@@ -6511,13 +6547,13 @@
         <v>2182618</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="M20" s="7">
         <v>4726</v>
@@ -6526,19 +6562,19 @@
         <v>4043867</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
         <v>1097</v>
@@ -6547,13 +6583,13 @@
         <v>1098594</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="H21" s="7">
         <v>1778</v>
@@ -6562,13 +6598,13 @@
         <v>1116011</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>530</v>
+        <v>108</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="M21" s="7">
         <v>2875</v>
@@ -6577,19 +6613,19 @@
         <v>2214606</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>256</v>
@@ -6598,13 +6634,13 @@
         <v>235309</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>511</v>
+        <v>545</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>380</v>
+        <v>546</v>
       </c>
       <c r="H22" s="7">
         <v>447</v>
@@ -6613,13 +6649,13 @@
         <v>279462</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>358</v>
+        <v>548</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="M22" s="7">
         <v>703</v>
@@ -6628,13 +6664,13 @@
         <v>514770</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>412</v>
+        <v>550</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,13 +6685,13 @@
         <v>3373610</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>5343</v>
@@ -6664,13 +6700,13 @@
         <v>3793619</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>8704</v>
@@ -6679,18 +6715,18 @@
         <v>7167230</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P47A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P47A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CBAC885-BFF0-4394-81D5-ECA66F66AF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAE5DAED-AC10-49F7-AFC5-03F260CE5D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{127828DF-2CB0-48FB-A027-87010E1CABD0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B312C539-6A97-4923-9F8A-A5EA661D2B2B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="546">
   <si>
     <t>Población según su autopercepción del peso respecto de su talla en 2007 (Tasa respuesta: 99,78%)</t>
   </si>
@@ -1310,394 +1310,373 @@
     <t>Población según su autopercepción del peso respecto de su talla en 2023 (Tasa respuesta: 99,81%)</t>
   </si>
   <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
   </si>
   <si>
     <t>4,83%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
   </si>
   <si>
     <t>7,7%</t>
   </si>
   <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
   </si>
   <si>
     <t>5,91%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
   </si>
 </sst>
 </file>
@@ -2109,7 +2088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A976CB35-B5F7-4324-A326-A7DFDF03CC46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3773DE3D-1A2D-44F1-8850-B2A8FA07F57A}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2706,7 +2685,7 @@
         <v>1553</v>
       </c>
       <c r="I13" s="7">
-        <v>1586874</v>
+        <v>1586873</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -3268,7 +3247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE87B28-59B5-493C-9682-D16CE83D1B10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD6694B-9B25-44AC-96CA-8B7EC5815797}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3646,7 +3625,7 @@
         <v>94</v>
       </c>
       <c r="D9" s="7">
-        <v>96203</v>
+        <v>96204</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>195</v>
@@ -3697,7 +3676,7 @@
         <v>1168</v>
       </c>
       <c r="D10" s="7">
-        <v>1230983</v>
+        <v>1230984</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>200</v>
@@ -3850,7 +3829,7 @@
         <v>1842</v>
       </c>
       <c r="D13" s="7">
-        <v>1947608</v>
+        <v>1947609</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -4427,7 +4406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9984E1E4-1294-4A86-9249-2F137C04F4B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0FA77E0-1053-4E9F-840D-C492BD05925E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4629,7 +4608,7 @@
         <v>841</v>
       </c>
       <c r="N5" s="7">
-        <v>881253</v>
+        <v>881254</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>305</v>
@@ -4782,7 +4761,7 @@
         <v>1613</v>
       </c>
       <c r="N8" s="7">
-        <v>1708288</v>
+        <v>1708289</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -5586,7 +5565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B41E7E-BFF3-4D18-809E-A980EB5451A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A189BA2-D537-4054-A5FA-262E7EDB5DCB}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5707,7 +5686,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="7">
-        <v>29747</v>
+        <v>28018</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>423</v>
@@ -5722,10 +5701,10 @@
         <v>51</v>
       </c>
       <c r="I4" s="7">
-        <v>30695</v>
+        <v>28187</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>332</v>
+        <v>95</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>426</v>
@@ -5737,16 +5716,16 @@
         <v>86</v>
       </c>
       <c r="N4" s="7">
-        <v>60442</v>
+        <v>56205</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>428</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>124</v>
+        <v>429</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5758,46 +5737,46 @@
         <v>349</v>
       </c>
       <c r="D5" s="7">
-        <v>269920</v>
+        <v>251922</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H5" s="7">
         <v>689</v>
       </c>
       <c r="I5" s="7">
-        <v>419534</v>
+        <v>373253</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M5" s="7">
         <v>1038</v>
       </c>
       <c r="N5" s="7">
-        <v>689454</v>
+        <v>625175</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>204</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,46 +5788,46 @@
         <v>240</v>
       </c>
       <c r="D6" s="7">
-        <v>186983</v>
+        <v>181759</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H6" s="7">
         <v>536</v>
       </c>
       <c r="I6" s="7">
-        <v>301790</v>
+        <v>275175</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="M6" s="7">
         <v>776</v>
       </c>
       <c r="N6" s="7">
-        <v>488772</v>
+        <v>456935</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5860,46 +5839,46 @@
         <v>66</v>
       </c>
       <c r="D7" s="7">
-        <v>54042</v>
+        <v>52375</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="H7" s="7">
         <v>146</v>
       </c>
       <c r="I7" s="7">
-        <v>80953</v>
+        <v>76177</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="M7" s="7">
         <v>212</v>
       </c>
       <c r="N7" s="7">
-        <v>134995</v>
+        <v>128553</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>453</v>
+        <v>193</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5911,7 +5890,7 @@
         <v>690</v>
       </c>
       <c r="D8" s="7">
-        <v>540692</v>
+        <v>514074</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -5926,7 +5905,7 @@
         <v>1422</v>
       </c>
       <c r="I8" s="7">
-        <v>832971</v>
+        <v>752792</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -5941,7 +5920,7 @@
         <v>2112</v>
       </c>
       <c r="N8" s="7">
-        <v>1373664</v>
+        <v>1266867</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -5964,43 +5943,43 @@
         <v>80</v>
       </c>
       <c r="D9" s="7">
-        <v>115965</v>
+        <v>116882</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>456</v>
+        <v>161</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="H9" s="7">
         <v>160</v>
       </c>
       <c r="I9" s="7">
-        <v>154151</v>
+        <v>138538</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="M9" s="7">
         <v>240</v>
       </c>
       <c r="N9" s="7">
-        <v>270116</v>
+        <v>255420</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>463</v>
@@ -6015,7 +5994,7 @@
         <v>1107</v>
       </c>
       <c r="D10" s="7">
-        <v>1192867</v>
+        <v>1143820</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>464</v>
@@ -6030,31 +6009,31 @@
         <v>1573</v>
       </c>
       <c r="I10" s="7">
-        <v>1324382</v>
+        <v>1381427</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>467</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="M10" s="7">
         <v>2680</v>
       </c>
       <c r="N10" s="7">
-        <v>2517249</v>
+        <v>2525246</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>471</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>472</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6066,46 +6045,46 @@
         <v>650</v>
       </c>
       <c r="D11" s="7">
-        <v>703520</v>
+        <v>883874</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="H11" s="7">
         <v>953</v>
       </c>
       <c r="I11" s="7">
-        <v>619902</v>
+        <v>575867</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>344</v>
+        <v>474</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>477</v>
       </c>
       <c r="M11" s="7">
         <v>1603</v>
       </c>
       <c r="N11" s="7">
-        <v>1323422</v>
+        <v>1459741</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6117,13 +6096,13 @@
         <v>153</v>
       </c>
       <c r="D12" s="7">
-        <v>147527</v>
+        <v>143995</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>482</v>
@@ -6132,7 +6111,7 @@
         <v>231</v>
       </c>
       <c r="I12" s="7">
-        <v>148326</v>
+        <v>139436</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>483</v>
@@ -6147,16 +6126,16 @@
         <v>384</v>
       </c>
       <c r="N12" s="7">
-        <v>295853</v>
+        <v>283431</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6168,7 +6147,7 @@
         <v>1990</v>
       </c>
       <c r="D13" s="7">
-        <v>2159879</v>
+        <v>2288571</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -6183,7 +6162,7 @@
         <v>2917</v>
       </c>
       <c r="I13" s="7">
-        <v>2246762</v>
+        <v>2235267</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -6198,7 +6177,7 @@
         <v>4907</v>
       </c>
       <c r="N13" s="7">
-        <v>4406640</v>
+        <v>4523837</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -6221,46 +6200,46 @@
         <v>31</v>
       </c>
       <c r="D14" s="7">
-        <v>32747</v>
+        <v>31254</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
       </c>
       <c r="I14" s="7">
-        <v>30682</v>
+        <v>28089</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>331</v>
+        <v>52</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>491</v>
+        <v>116</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M14" s="7">
         <v>74</v>
       </c>
       <c r="N14" s="7">
-        <v>63428</v>
+        <v>59343</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6272,46 +6251,46 @@
         <v>406</v>
       </c>
       <c r="D15" s="7">
-        <v>398461</v>
+        <v>380986</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="H15" s="7">
         <v>602</v>
       </c>
       <c r="I15" s="7">
-        <v>438702</v>
+        <v>404482</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="M15" s="7">
         <v>1008</v>
       </c>
       <c r="N15" s="7">
-        <v>837164</v>
+        <v>785468</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6323,46 +6302,46 @@
         <v>207</v>
       </c>
       <c r="D16" s="7">
-        <v>208092</v>
+        <v>201817</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H16" s="7">
         <v>289</v>
       </c>
       <c r="I16" s="7">
-        <v>194319</v>
+        <v>180488</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M16" s="7">
         <v>496</v>
       </c>
       <c r="N16" s="7">
-        <v>402411</v>
+        <v>382305</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6374,46 +6353,46 @@
         <v>37</v>
       </c>
       <c r="D17" s="7">
-        <v>33740</v>
+        <v>32566</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="H17" s="7">
         <v>70</v>
       </c>
       <c r="I17" s="7">
-        <v>50183</v>
+        <v>47405</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>352</v>
+        <v>514</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="M17" s="7">
         <v>107</v>
       </c>
       <c r="N17" s="7">
-        <v>83922</v>
+        <v>79971</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6425,7 +6404,7 @@
         <v>681</v>
       </c>
       <c r="D18" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -6440,7 +6419,7 @@
         <v>1004</v>
       </c>
       <c r="I18" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -6455,7 +6434,7 @@
         <v>1685</v>
       </c>
       <c r="N18" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -6478,46 +6457,46 @@
         <v>146</v>
       </c>
       <c r="D19" s="7">
-        <v>178459</v>
+        <v>176154</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>522</v>
+        <v>416</v>
       </c>
       <c r="H19" s="7">
         <v>254</v>
       </c>
       <c r="I19" s="7">
-        <v>215528</v>
+        <v>194813</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>524</v>
+        <v>91</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>354</v>
+        <v>522</v>
       </c>
       <c r="M19" s="7">
         <v>400</v>
       </c>
       <c r="N19" s="7">
-        <v>393987</v>
+        <v>370967</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>423</v>
+        <v>523</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>525</v>
+        <v>119</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>526</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6529,46 +6508,46 @@
         <v>1862</v>
       </c>
       <c r="D20" s="7">
-        <v>1861248</v>
+        <v>1776727</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="H20" s="7">
         <v>2864</v>
       </c>
       <c r="I20" s="7">
-        <v>2182618</v>
+        <v>2159161</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>531</v>
+        <v>275</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="M20" s="7">
         <v>4726</v>
       </c>
       <c r="N20" s="7">
-        <v>4043867</v>
+        <v>3935888</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6580,46 +6559,46 @@
         <v>1097</v>
       </c>
       <c r="D21" s="7">
-        <v>1098594</v>
+        <v>1267450</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H21" s="7">
         <v>1778</v>
       </c>
       <c r="I21" s="7">
-        <v>1116011</v>
+        <v>1031530</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>108</v>
+        <v>535</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="M21" s="7">
         <v>2875</v>
       </c>
       <c r="N21" s="7">
-        <v>2214606</v>
+        <v>2298981</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6631,46 +6610,46 @@
         <v>256</v>
       </c>
       <c r="D22" s="7">
-        <v>235309</v>
+        <v>228937</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>544</v>
+        <v>229</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>545</v>
+        <v>54</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="H22" s="7">
         <v>447</v>
       </c>
       <c r="I22" s="7">
-        <v>279462</v>
+        <v>263017</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>548</v>
+        <v>351</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="M22" s="7">
         <v>703</v>
       </c>
       <c r="N22" s="7">
-        <v>514770</v>
+        <v>491954</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>552</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6682,7 +6661,7 @@
         <v>3361</v>
       </c>
       <c r="D23" s="7">
-        <v>3373610</v>
+        <v>3449268</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -6697,7 +6676,7 @@
         <v>5343</v>
       </c>
       <c r="I23" s="7">
-        <v>3793619</v>
+        <v>3648522</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -6712,7 +6691,7 @@
         <v>8704</v>
       </c>
       <c r="N23" s="7">
-        <v>7167230</v>
+        <v>7097790</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
